--- a/biology/Médecine/Septoplastie/Septoplastie.xlsx
+++ b/biology/Médecine/Septoplastie/Septoplastie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La septoplastie est la procédure chirurgicale destinée à corriger une déviation de la cloison nasale. Il faut savoir que 80 % de la population a une cloison nasale déviée et que seules les déformations importantes peuvent être à l'origine d'une obstruction nasale.
-Lorsque la septoplastie est combinée avec une rhinoplastie (chirurgie esthétique du nez), la procédure se nomme alors rhinoseptoplastie[1].
+Lorsque la septoplastie est combinée avec une rhinoplastie (chirurgie esthétique du nez), la procédure se nomme alors rhinoseptoplastie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La septoplastie est une opération d'une durée de 30 à 45 minutes, effectuée sous anesthésie générale, et pouvant relever de la chirurgie ambulatoire ou bien une intervention plus importante dans certains cas.
 </t>
@@ -543,7 +557,9 @@
           <t>Indication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette opération est indiquée en cas d'obstruction nasale (importante) influant sur la respiration, et permet en principe de rééquilibrer le flux d'air entre les deux cavités nasales.
 </t>
@@ -574,7 +590,9 @@
           <t>Risques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les risques principaux de cette opération sont :
 ensellure nasale
